--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5173C66E-59BE-4503-8166-D3C6BE25219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC59364-4267-4669-9B26-86A4E422E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="5540" firstSheet="18" activeTab="20" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="353">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2585,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView topLeftCell="AC2" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,8 +2767,12 @@
       <c r="H2" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="8" t="s">
         <v>295</v>
       </c>
@@ -2894,6 +2898,12 @@
       <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" s="8" t="s">
         <v>295</v>
       </c>
@@ -3019,6 +3029,12 @@
       <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K4" s="8" t="s">
         <v>295</v>
       </c>
@@ -3144,6 +3160,12 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K5" s="8" t="s">
         <v>295</v>
       </c>
@@ -3268,6 +3290,12 @@
       </c>
       <c r="H6" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>295</v>
@@ -4742,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7498,6 +7526,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7714,26 +7761,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7752,24 +7798,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC59364-4267-4669-9B26-86A4E422E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A648BB-F138-4BC3-9927-C57E76C03FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-3460" yWindow="4290" windowWidth="19200" windowHeight="5540" firstSheet="12" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="354">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1115,6 +1115,9 @@
   </si>
   <si>
     <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID1</t>
+  </si>
+  <si>
+    <t>CAPTURE_COURTDOCUMENT_ID1</t>
   </si>
 </sst>
 </file>
@@ -2583,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2607,11 +2610,12 @@
     <col min="15" max="15" width="26.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
-    <col min="42" max="42" width="11.81640625" customWidth="1"/>
-    <col min="43" max="43" width="11.90625" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="8"/>
+    <col min="43" max="43" width="11.81640625" customWidth="1"/>
+    <col min="44" max="44" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2667,82 +2671,85 @@
         <v>301</v>
       </c>
       <c r="S1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2797,9 +2804,6 @@
       <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="T2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2872,8 +2876,11 @@
       <c r="AQ2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2928,9 +2935,6 @@
       <c r="R3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3003,8 +3007,11 @@
       <c r="AQ3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3059,9 +3066,6 @@
       <c r="R4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3134,8 +3138,11 @@
       <c r="AQ4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3190,9 +3197,6 @@
       <c r="R5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3265,8 +3269,11 @@
       <c r="AQ5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3321,9 +3328,6 @@
       <c r="R6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T6" s="8" t="s">
         <v>10</v>
       </c>
@@ -3394,6 +3398,9 @@
         <v>10</v>
       </c>
       <c r="AQ6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4770,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -7526,25 +7533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7761,25 +7749,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7798,6 +7787,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A648BB-F138-4BC3-9927-C57E76C03FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A9DFD-8CBD-4E1D-80AE-D2A9BF1AFD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3460" yWindow="4290" windowWidth="19200" windowHeight="5540" firstSheet="12" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="354">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2610,6 +2610,7 @@
     <col min="15" max="15" width="26.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
+    <col min="18" max="18" width="25.36328125" customWidth="1"/>
     <col min="19" max="19" width="8.7265625" style="8"/>
     <col min="43" max="43" width="11.81640625" customWidth="1"/>
     <col min="44" max="44" width="11.90625" customWidth="1"/>
@@ -2804,6 +2805,9 @@
       <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="S2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="T2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2935,6 +2939,9 @@
       <c r="R3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="S3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="T3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3066,6 +3073,9 @@
       <c r="R4" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3197,6 +3207,9 @@
       <c r="R5" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="S5" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3327,6 +3340,9 @@
       </c>
       <c r="R6" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>10</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A9DFD-8CBD-4E1D-80AE-D2A9BF1AFD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5107BC5-265D-4CE4-BCB0-5B76A345BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
     <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID1</t>
   </si>
   <si>
-    <t>CAPTURE_COURTDOCUMENT_ID1</t>
+    <t>CAPTURE_COURTDOCUMENT_ID</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2589,7 @@
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S6"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2611,7 +2611,7 @@
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
     <col min="18" max="18" width="25.36328125" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="8"/>
+    <col min="19" max="19" width="31" style="8" customWidth="1"/>
     <col min="43" max="43" width="11.81640625" customWidth="1"/>
     <col min="44" max="44" width="11.90625" customWidth="1"/>
   </cols>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5107BC5-265D-4CE4-BCB0-5B76A345BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C90D6EA-52B1-4A0A-B8D2-EB1E82E77145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2797,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>12</v>
@@ -7047,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C90D6EA-52B1-4A0A-B8D2-EB1E82E77145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A32E0C-47A5-49D4-99DD-595977DEB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="355">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>CAPTURE_COURTDOCUMENT_ID</t>
+  </si>
+  <si>
+    <t>NOTICE_ID_INDEX</t>
   </si>
 </sst>
 </file>
@@ -2586,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2610,13 +2613,14 @@
     <col min="15" max="15" width="26.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="25.36328125" customWidth="1"/>
-    <col min="19" max="19" width="31" style="8" customWidth="1"/>
-    <col min="43" max="43" width="11.81640625" customWidth="1"/>
-    <col min="44" max="44" width="11.90625" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="25.36328125" customWidth="1"/>
+    <col min="20" max="20" width="31" style="8" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" customWidth="1"/>
+    <col min="45" max="45" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2669,88 +2673,91 @@
         <v>300</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +2890,11 @@
       <c r="AR2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AS2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2936,14 +2946,14 @@
       <c r="Q3" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>10</v>
+      <c r="R3" s="8">
+        <v>1</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>10</v>
@@ -3017,8 +3027,11 @@
       <c r="AR3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AS3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3070,14 +3083,14 @@
       <c r="Q4" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>10</v>
+      <c r="R4" s="8">
+        <v>2</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>10</v>
@@ -3151,8 +3164,11 @@
       <c r="AR4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AS4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3204,14 +3220,14 @@
       <c r="Q5" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>10</v>
+      <c r="R5" s="8">
+        <v>3</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>10</v>
@@ -3285,8 +3301,11 @@
       <c r="AR5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AS5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3338,14 +3357,14 @@
       <c r="Q6" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>10</v>
+      <c r="R6" s="8">
+        <v>4</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U6" s="8" t="s">
         <v>10</v>
@@ -3417,6 +3436,9 @@
         <v>10</v>
       </c>
       <c r="AR6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A32E0C-47A5-49D4-99DD-595977DEB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7020642D-13AD-47EE-9169-92C4E8345296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2613,7 +2613,7 @@
     <col min="15" max="15" width="26.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" style="8" customWidth="1"/>
     <col min="19" max="19" width="25.36328125" customWidth="1"/>
     <col min="20" max="20" width="31" style="8" customWidth="1"/>
     <col min="44" max="44" width="11.81640625" customWidth="1"/>
@@ -2926,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>179</v>
@@ -3063,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>179</v>
@@ -3200,7 +3200,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>179</v>
@@ -3337,7 +3337,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>179</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7020642D-13AD-47EE-9169-92C4E8345296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1998037-BB38-4F93-8EA9-763230B7D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-1190" yWindow="570" windowWidth="19200" windowHeight="5540" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="356">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>NOTICE_ID_INDEX</t>
+  </si>
+  <si>
+    <t>Oral - In-Person</t>
   </si>
 </sst>
 </file>
@@ -2591,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K6"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2926,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>179</v>
@@ -3063,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>179</v>
@@ -3200,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>179</v>
@@ -3337,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>179</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1998037-BB38-4F93-8EA9-763230B7D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A604EAE-7729-4A31-A363-8527F85061B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1190" yWindow="570" windowWidth="19200" windowHeight="5540" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="12" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="356">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2592,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2616,14 +2616,15 @@
     <col min="15" max="15" width="26.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="20.54296875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="25.36328125" customWidth="1"/>
-    <col min="20" max="20" width="31" style="8" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" customWidth="1"/>
-    <col min="45" max="45" width="11.90625" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="25.36328125" customWidth="1"/>
+    <col min="21" max="21" width="31" style="8" customWidth="1"/>
+    <col min="45" max="45" width="11.81640625" customWidth="1"/>
+    <col min="46" max="46" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2676,91 +2677,94 @@
         <v>300</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2812,9 +2816,6 @@
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2896,8 +2897,11 @@
       <c r="AS2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AT2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2949,17 +2953,17 @@
       <c r="Q3" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="R3" s="8">
-        <v>1</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>10</v>
+      <c r="R3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>10</v>
@@ -3033,8 +3037,11 @@
       <c r="AS3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AT3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3086,17 +3093,17 @@
       <c r="Q4" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="8">
         <v>2</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>10</v>
@@ -3170,8 +3177,11 @@
       <c r="AS4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AT4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3223,17 +3233,17 @@
       <c r="Q5" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="8">
         <v>3</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T5" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>10</v>
@@ -3307,8 +3317,11 @@
       <c r="AS5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AT5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3360,17 +3373,17 @@
       <c r="Q6" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="8">
         <v>4</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="T6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>10</v>
@@ -3443,6 +3456,14 @@
       </c>
       <c r="AS6" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="R7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
